--- a/DIGIKEY SİPARİŞ.xlsx
+++ b/DIGIKEY SİPARİŞ.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t xml:space="preserve">AP63200WU-7DICT-ND</t>
   </si>
@@ -230,6 +230,30 @@
   </si>
   <si>
     <t xml:space="preserve">RMCF0805FT10R0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">411 TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">430 TL</t>
   </si>
 </sst>
 </file>
@@ -361,7 +385,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -698,19 +722,44 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="3"/>
+      <c r="E21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
+      <c r="D23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="3"/>
+      <c r="E24" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="0"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>

--- a/DIGIKEY SİPARİŞ.xlsx
+++ b/DIGIKEY SİPARİŞ.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t xml:space="preserve">AP63200WU-7DICT-ND</t>
   </si>
@@ -184,28 +184,40 @@
     <t xml:space="preserve">0.30</t>
   </si>
   <si>
-    <t xml:space="preserve">P3.9AJCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERJ-3RQF3R9V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3.3AJCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERJ-3RQF3R3V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2.7AJCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERJ-3RQF2R7V</t>
+    <t xml:space="preserve">RMCF0805FT47R0CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT47R0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT3R90CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT3R90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT3R30CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT3R30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT2R70CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT2R70</t>
   </si>
   <si>
     <t xml:space="preserve">RMCF0603FT115KCT-ND</t>
@@ -214,10 +226,10 @@
     <t xml:space="preserve">RMCF0603FT115K</t>
   </si>
   <si>
-    <t xml:space="preserve">0.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50</t>
+    <t xml:space="preserve">0.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16</t>
   </si>
   <si>
     <t xml:space="preserve">RMCF0603FT33K0CT-ND</t>
@@ -226,34 +238,16 @@
     <t xml:space="preserve">RMCF0603FT33K0</t>
   </si>
   <si>
-    <t xml:space="preserve">RMCF0805FT10R0CT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMCF0805FT10R0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">411 TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KARGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">430 TL</t>
+    <t xml:space="preserve">RMCF0603FT10R0CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0603FT10R0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
   </si>
 </sst>
 </file>
@@ -382,10 +376,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -626,13 +620,13 @@
         <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,47 +637,47 @@
         <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,79 +688,71 @@
         <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3"/>
-      <c r="E21" s="1" t="s">
-        <v>70</v>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="D23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="B22" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
       <c r="B24" s="3"/>
-      <c r="E24" s="1" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
